--- a/biology/Botanique/Gilroy_Gardens/Gilroy_Gardens.xlsx
+++ b/biology/Botanique/Gilroy_Gardens/Gilroy_Gardens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Gilroy Gardens est un parc à thème situé à Gilroy, en Californie. Conçu et construit par Michael Bonfante, le parc a ouvert ses portes sous le nom de Bonfante Gardens en 2001. Le parc à thème de 217 hectares appartient à la ville de Gilroy et est géré par Cedar Fair. Il propose plus de 40 attractions. L'une de ses attractions les plus connues est le Circus Trees, créé par Axel Erlandson.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine du parc remonte au rachat en 1985 par Michael et Claudia Bonfante de la collection d'arbres du Circus Tree, créé par Axel Erlandson en 1947. Aménagé progressivement sur une période de 25 ans, d'abord comme pépinière et lieu de détente pour les employés de Nob Hill Foods, leur chaîne de supermarchés, le parc ouvert depuis juin 2001, après la vente de la chaîne de supermarchés, portait à l'origine le nom de ses propriétaires, Bonfante Gardens. Malgré leur motivation, Michael et Claudia Bonfante rencontrèrent des difficultés financières la première année.
-Paramount Parks prit en charge la direction du parc à partir de sa troisième saison. Le 30 juin 2006, le parc devint la propriété de Cedar Fair Entertainment après le rachat de Paramount Parks[1]. Le nom fut changé pour l'actuel en 2007.
+Paramount Parks prit en charge la direction du parc à partir de sa troisième saison. Le 30 juin 2006, le parc devint la propriété de Cedar Fair Entertainment après le rachat de Paramount Parks. Le nom fut changé pour l'actuel en 2007.
 La ville de Gilroy a acheté le parc le 5 mars 2008.
 </t>
         </is>
@@ -547,11 +561,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les montagnes russes
+          <t>Les montagnes russes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Quicksilver Express
 			Timber Twister
-Autres attractions
-Apple &amp; Worm‍ : Manège pour enfants
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gilroy_Gardens</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gilroy_Gardens</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Attractions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres attractions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apple &amp; Worm‍ : Manège pour enfants
 Artichoke Dip‍ : Manège en forme d'artichaud
 Banana Split‍ : Bateau à bascule
 Balloon Flight‍ : Manège de montgolfières
